--- a/docs/Project Docs/STE_GQ_Checklists/STE_CA_ChecklistDeAvaliacao_Sprint-04.xlsx
+++ b/docs/Project Docs/STE_GQ_Checklists/STE_CA_ChecklistDeAvaliacao_Sprint-04.xlsx
@@ -5,15 +5,15 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Messias\OneDrive\UFG\Trabalhos\5°Período\GP\GP-Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Documents\PGP-2016\docs\Project Docs\STE_GQ_Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="GPR" sheetId="6" r:id="rId1"/>
-    <sheet name="GRE" sheetId="7" r:id="rId2"/>
+    <sheet name="GRE" sheetId="7" r:id="rId1"/>
+    <sheet name="GPR" sheetId="6" r:id="rId2"/>
     <sheet name="GCO" sheetId="8" r:id="rId3"/>
     <sheet name="GQA" sheetId="9" r:id="rId4"/>
     <sheet name="MED" sheetId="10" r:id="rId5"/>
@@ -26,7 +26,7 @@
     <definedName name="NECESSITA_MUDANÇAS" comment="Lista Suspensa de STATUS">#REF!</definedName>
     <definedName name="NomeGerenteQualidade">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Parcialmente</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint: </t>
-  </si>
-  <si>
     <t>N° de Não-Conformidades</t>
   </si>
   <si>
@@ -170,7 +167,34 @@
     <t>A analise foi comunicada e utilizada como base para decisões de melhoria de processo</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerente de Qualidade: </t>
+    <t>Nenhuma</t>
+  </si>
+  <si>
+    <t>Duas tarefas não foram cumpridas e ficaram para a próxima Sprint</t>
+  </si>
+  <si>
+    <t>Nenhum problema encontrado</t>
+  </si>
+  <si>
+    <t>Houve atrasos nas revisões</t>
+  </si>
+  <si>
+    <t>Total de Não-Conformidades</t>
+  </si>
+  <si>
+    <t>Não houve mudanças</t>
+  </si>
+  <si>
+    <t>Não foram executadas correções de código nessa Sprint</t>
+  </si>
+  <si>
+    <t>Existem não conformidades de padronização de código</t>
+  </si>
+  <si>
+    <t>Gerente de Qualidade: João Gabriel Junqueira</t>
+  </si>
+  <si>
+    <t>Sprint: 4</t>
   </si>
 </sst>
 </file>
@@ -182,7 +206,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +217,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -217,16 +242,25 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Corbel"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -261,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,6 +355,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -329,7 +376,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -344,18 +391,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,8 +412,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -375,7 +438,47 @@
     <cellStyle name="Währung [0]_Alternative Methods of Financing New Products RD" xfId="3"/>
     <cellStyle name="Währung_Alternative Methods of Financing New Products RD" xfId="4"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -504,30 +607,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -568,18 +647,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -587,592 +654,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1484,38 +965,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>19</v>
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,7 +1007,177 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>IF(C4=0,"Estável",IF(C4&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
+        <v>Estável</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>IF(C5=0,"Estável",IF(C5&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
+        <v>Estável</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>IF(C6=0,"Estável",IF(C6&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
+        <v>Estável</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>IF(C7=0,"Estável",IF(C7&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
+        <v>Estável</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="14">
+        <f>SUM(C4:C7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:D7">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"Estável"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D7">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"Necessita de Mudança"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"Necessita de Atenção"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C7">
+      <formula1>0</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="str">
+        <f>GRE!A2</f>
+        <v>Gerente de Qualidade: João Gabriel Junqueira</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="6" t="str">
+        <f>GRE!E2</f>
+        <v>Sprint: 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -1539,161 +1190,217 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
       <c r="D4" s="4" t="str">
         <f>IF(C4=0,"Estável",IF(C4&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
       <c r="D5" s="4" t="str">
         <f>IF(C5=0,"Estável",IF(C5&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
       <c r="D6" s="4" t="str">
         <f t="shared" ref="D6:D13" si="0">IF(C6=0,"Estável",IF(C6&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Estável</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Estável</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>Necessita de Atenção</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Estável</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Estável</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Estável</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Estável</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Estável</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>Necessita de Atenção</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14">
+        <f>SUM(C4:C13)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Estável"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D13">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Estável"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D13">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Necessita de Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Necessita de Mudança"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1708,42 +1415,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="str">
-        <f>GPR!$A$2</f>
-        <v xml:space="preserve">Gerente de Qualidade: </v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="str">
+      <c r="A2" s="15" t="str">
+        <f>GRE!A2</f>
+        <v>Gerente de Qualidade: João Gabriel Junqueira</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="6" t="str">
         <f>GPR!E2</f>
-        <v xml:space="preserve">Sprint: </v>
+        <v>Sprint: 4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1754,145 +1461,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="str">
-        <f>IF(C4=0,"Estável",IF(C4&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="str">
-        <f>IF(C5=0,"Estável",IF(C5&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="str">
-        <f>IF(C6=0,"Estável",IF(C6&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="str">
-        <f>IF(C7=0,"Estável",IF(C7&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D4:D7">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"Estável"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D7">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"Necessita de Mudança"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"Necessita de Atenção"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C7">
-      <formula1>0</formula1>
-      <formula2>999</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="str">
-        <f>GPR!A2</f>
-        <v xml:space="preserve">Gerente de Qualidade: </v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="str">
-        <f>GPR!E2</f>
-        <v xml:space="preserve">Sprint: </v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -1905,75 +1474,111 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
       <c r="D4" s="4" t="str">
         <f>IF(C4=0,"Estável",IF(C4&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
       <c r="D5" s="4" t="str">
         <f>IF(C5=0,"Estável",IF(C5&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
       <c r="D6" s="4" t="str">
         <f>IF(C6=0,"Estável",IF(C6&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
       <c r="D7" s="4" t="str">
         <f>IF(C7=0,"Estável",IF(C7&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
       <c r="D8" s="4" t="str">
         <f>IF(C8=0,"Estável",IF(C8&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="14">
+        <f>SUM(C4:C8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D8">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
@@ -1981,10 +1586,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Necessita de Mudança"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Necessita de Atenção"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2000,40 +1605,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="str">
-        <f>GPR!A2</f>
-        <v xml:space="preserve">Gerente de Qualidade: </v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="str">
-        <f>GPR!E2</f>
-        <v xml:space="preserve">Sprint: </v>
+      <c r="A2" s="15" t="str">
+        <f>GRE!A2</f>
+        <v>Gerente de Qualidade: João Gabriel Junqueira</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="6" t="str">
+        <f>GRE!E2</f>
+        <v>Sprint: 4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -2057,89 +1662,129 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
       <c r="D4" s="4" t="str">
-        <f>IF(C4=0,"Estável",IF(C4&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E4" s="4"/>
+        <f t="shared" ref="D4:D9" si="0">IF(C4=0,"Estável",IF(C4&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
+        <v>Estável</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
       <c r="D5" s="4" t="str">
-        <f>IF(C5=0,"Estável",IF(C5&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E5" s="4"/>
+        <f t="shared" si="0"/>
+        <v>Estável</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
       <c r="D6" s="4" t="str">
-        <f>IF(C6=0,"Estável",IF(C6&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E6" s="4"/>
+        <f t="shared" si="0"/>
+        <v>Estável</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
       <c r="D7" s="4" t="str">
-        <f>IF(C7=0,"Estável",IF(C7&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E7" s="4"/>
+        <f t="shared" si="0"/>
+        <v>Necessita de Atenção</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
       <c r="D8" s="4" t="str">
-        <f>IF(C8=0,"Estável",IF(C8&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E8" s="4"/>
+        <f t="shared" si="0"/>
+        <v>Estável</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
       <c r="D9" s="4" t="str">
-        <f>IF(C9=0,"Estável",IF(C9&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
-        <v>Estável</v>
-      </c>
-      <c r="E9" s="4"/>
+        <f t="shared" si="0"/>
+        <v>Estável</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="14">
+        <f>SUM(C4:C9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D9">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
@@ -2166,40 +1811,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="str">
-        <f>GPR!A2</f>
-        <v xml:space="preserve">Gerente de Qualidade: </v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="str">
-        <f>GPR!E2</f>
-        <v xml:space="preserve">Sprint: </v>
+      <c r="A2" s="15" t="str">
+        <f>GRE!A2</f>
+        <v>Gerente de Qualidade: João Gabriel Junqueira</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="6" t="str">
+        <f>GRE!E2</f>
+        <v>Sprint: 4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -2223,75 +1868,111 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
       <c r="D4" s="4" t="str">
         <f>IF(C4=0,"Estável",IF(C4&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
       <c r="D5" s="4" t="str">
         <f>IF(C5=0,"Estável",IF(C5&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
       <c r="D6" s="4" t="str">
         <f>IF(C6=0,"Estável",IF(C6&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
       <c r="D7" s="4" t="str">
         <f>IF(C7=0,"Estável",IF(C7&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
       <c r="D8" s="4" t="str">
         <f>IF(C8=0,"Estável",IF(C8&lt;=3,"Necessita de Atenção","Necessita de Mudança"))</f>
         <v>Estável</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="14">
+        <f>SUM(C4:C8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D8">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
